--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaDatDiaBan.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaDatDiaBan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE13EACE-00B4-4413-97CD-C6B9CE2BAF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57137F-8AC3-4383-B251-3A60FC853015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="105" yWindow="15" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Loại đường</t>
+  </si>
+  <si>
+    <t>Mã loại đất(theo chức năng Danh mục loại đất)</t>
+  </si>
+  <si>
+    <t>LUC</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,9 +565,10 @@
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -576,7 +583,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -602,8 +609,11 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="14"/>
@@ -625,8 +635,9 @@
       <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -658,8 +669,11 @@
       <c r="K4" s="9">
         <v>1080000</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -667,7 +681,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -675,7 +689,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -683,23 +697,24 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaDatDiaBan.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaDatDiaBan.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57137F-8AC3-4383-B251-3A60FC853015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C3EDD9-948F-4476-849C-DBF337A12DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="15" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,16 +69,16 @@
     <t>Trần Khánh Dư</t>
   </si>
   <si>
-    <t xml:space="preserve">Bảng giá đất </t>
-  </si>
-  <si>
     <t>Loại đường</t>
   </si>
   <si>
-    <t>Mã loại đất(theo chức năng Danh mục loại đất)</t>
-  </si>
-  <si>
     <t>LUC</t>
+  </si>
+  <si>
+    <t>Mã loại đất (theo chức năng Danh mục loại đất)</t>
+  </si>
+  <si>
+    <t>BẢNG GIÁ ĐẤT ĐỊA BÀN</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -102,7 +102,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -111,23 +111,23 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -220,20 +220,25 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,74 +557,76 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="24.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="24.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="12" customWidth="1"/>
+    <col min="10" max="11" width="9" style="12"/>
+    <col min="12" max="12" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
@@ -635,7 +642,7 @@
       <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
@@ -651,7 +658,7 @@
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>0.9</v>
       </c>
       <c r="G4" s="9">
@@ -670,52 +677,49 @@
         <v>1080000</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
@@ -725,6 +729,14 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="F4:F1048576" xr:uid="{4CC73666-2D22-4CD7-985A-87FCA173C308}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="G4:K1048576" xr:uid="{1180E151-519F-44BA-8C65-83920794BF38}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaDatDiaBan.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaDatDiaBan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\csdl gia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C3EDD9-948F-4476-849C-DBF337A12DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1743D-CA3C-48C5-87E9-DF69997C56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>BẢNG GIÁ ĐẤT ĐỊA BÀN</t>
+  </si>
+  <si>
+    <t>Mã xã phường(theo chức năng danh mục xã phường)</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -102,7 +105,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -111,14 +114,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +129,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -201,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -225,6 +228,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,9 +243,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,9 +265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,7 +305,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -404,7 +411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -546,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,79 +561,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="24.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="6" width="38.375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="24.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="12" customWidth="1"/>
     <col min="10" max="11" width="9" style="12"/>
-    <col min="12" max="12" width="39.625" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
@@ -642,9 +653,10 @@
       <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -679,45 +691,47 @@
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A2:A3"/>
